--- a/data/financial_statements/sofp/BK.xlsx
+++ b/data/financial_statements/sofp/BK.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,2531 +593,2594 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>148060000000</v>
+      </c>
+      <c r="C2">
         <v>162157000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>180895000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>201936000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>171342000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>200119000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>198061000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>200425000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>211506000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>172037000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>186337000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>214579000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>158436000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>149849000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>160577000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>127386000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>141830000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>130817000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>130140000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>148633000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>143028000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>129170000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>125175000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>115694000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>109483000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>139923000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>142400000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>148446000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>166627000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>146208000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>162167000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>153581000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>153330000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>158056000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>179207000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>154544000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>167378000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>165505000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>147121000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>142682000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>214805000000</v>
+      </c>
+      <c r="C3">
         <v>232545000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>250609000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>270284000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>239390000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>264678000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>261831000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>261315000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>268127000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>227692000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>241972000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>277383000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>213891000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>205199000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>213485000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>181378000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>198919000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>185304000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>188434000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>209896000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>205019000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>188624000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>187250000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>176949000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>174340000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>206294000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>207295000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>210490000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>230735000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>209866000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>225696000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>216274000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>212878000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>215957000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>238892000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>208915000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>219446000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>215982000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>197830000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>192206000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>3256000000</v>
+      </c>
+      <c r="C4">
         <v>3311000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3354000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3359000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3431000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3422000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3442000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3521000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3602000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3617000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>3598000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3514000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>3625000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>3149000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2970000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>3010000000</v>
-      </c>
-      <c r="Q4">
-        <v>1832000000</v>
       </c>
       <c r="R4">
         <v>1832000000</v>
       </c>
       <c r="S4">
+        <v>1832000000</v>
+      </c>
+      <c r="T4">
         <v>1752000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1702000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1634000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1631000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>1640000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1307000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1303000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>1338000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>1399000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>1377000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>1379000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>1361000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>1412000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>1410000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>1394000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>1351000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>1590000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>1613000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>1655000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>1569000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>1595000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>1624000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>142816000000</v>
+      </c>
+      <c r="C5">
         <v>144181000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>150844000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>153396000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>158705000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>157274000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>155906000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>155844000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>156441000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>155339000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>154682000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>139273000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>123033000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>122340000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>120142000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>117504000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>119791000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>118641000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>119081000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>118789000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>120370000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>120049000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>119260000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>115834000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>114727000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>118998000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>117600000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>118011000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>119179000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>120105000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>123034000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>128954000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>119263000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>115696000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>104790000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>99442000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>99052000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>97457000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>105355000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>106556000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>19314000000</v>
+        <v>19051000000</v>
       </c>
       <c r="C6">
-        <v>20205000000</v>
+        <v>21504000000</v>
       </c>
       <c r="D6">
-        <v>20430000000</v>
+        <v>22352000000</v>
       </c>
       <c r="E6">
-        <v>20503000000</v>
+        <v>22545000000</v>
       </c>
       <c r="F6">
+        <v>22599000000</v>
+      </c>
+      <c r="G6">
         <v>20361000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>20451000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>20452000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>20508000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>20383000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>20298000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>20310000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>20493000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>20372000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>20497000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>20560000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>20570000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>20648000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>20726000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>20966000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>20975000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>21004000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>20963000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>20904000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>20914000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>21120000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>21239000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>21385000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>21460000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>21593000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>21807000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>21710000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>21996000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>22207000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>22510000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>22480000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>22525000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>22552000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>22507000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>22616000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>28602000000</v>
+        <v>25855000000</v>
       </c>
       <c r="C7">
-        <v>27609000000</v>
+        <v>20910000000</v>
       </c>
       <c r="D7">
-        <v>26342000000</v>
+        <v>21466000000</v>
       </c>
       <c r="E7">
-        <v>22409000000</v>
+        <v>19094000000</v>
       </c>
       <c r="F7">
+        <v>15239000000</v>
+      </c>
+      <c r="G7">
         <v>24798000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>25333000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>23852000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>20955000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>21367000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>21766000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>27675000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>20466000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>22108000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>24074000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>23680000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>21761000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>23345000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>22935000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>22244000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>23760000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>23089000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>25702000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>22542000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>22185000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>26364000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>24818000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>21607000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>21027000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>24446000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>23305000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>30740000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>29772000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>31085000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>32958000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>35791000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>31838000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>34392000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>33218000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>32940000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>190978000000</v>
+      </c>
+      <c r="C8">
         <v>195408000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>202012000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>203527000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>205048000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>205855000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>205132000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>203669000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>201506000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>200706000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>200344000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>190772000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>167617000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>167969000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>167683000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>164754000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>163954000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>164466000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>164494000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>163701000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>166739000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>165773000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>167565000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>160587000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>159129000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>167820000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>165056000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>162380000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>163045000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>167505000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>169558000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>182814000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>172425000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>170339000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>161848000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>159326000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>155070000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>155970000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>162675000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>163736000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>405783000000</v>
+      </c>
+      <c r="C9">
         <v>427953000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>452621000000.0001</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>473811000000.0001</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>444438000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>470533000000.0001</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>466963000000.0001</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>464984000000.0001</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>469633000000.0001</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>428398000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>442316000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>468155000000.0001</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>381508000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>373168000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>381168000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>346132000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>362873000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>349770000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>352928000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>373597000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>371758000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>354397000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>354815000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>337536000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>333469000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>374114000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>372351000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>372870000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>393780000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>377371000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>395254000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>399088000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>385303000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>386296000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>400740000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>368241000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>374516000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>371952000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>360505000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>355942000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>12335000000</v>
+      </c>
+      <c r="C10">
         <v>11339000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>11434000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>13181000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>11566000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>11973000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>12425000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>15150000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>11305000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>16578000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>15177000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>14249000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>15360000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>15334000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>20651000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>14534000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>16182000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>10893000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>15708000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>25536000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>18238000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>12815000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>11810000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>13692000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>9989000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>8052000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>7611000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>14803000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>15002000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>8824000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>10020000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>7919000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>11469000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>9687000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>10328000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>9962000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>9744000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>11588000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>12711000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>8680000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>302405000000</v>
+      </c>
+      <c r="C11">
         <v>325730000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>351582000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>372173000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>344844000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>369141000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>362374000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>360595000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>366630000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>319826000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>330482000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>360733000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>278224000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>268024000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>271823000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>241692000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>258509000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>250273000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>249683000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>262016000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>264506000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>252172000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>257299000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>242597000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>242477000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>282540000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>280850000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>279350000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>301510000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>289004000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>306480000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>303218000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>287050000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>285051000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>299681000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>269049000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>276836000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>270853000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>260149000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>254658000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>5410000000</v>
+      </c>
+      <c r="C12">
         <v>5316000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>5011000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>4534000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>5767000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>5609000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>5213000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>4916000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>5696000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>5347000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>5029000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>4705000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>5642000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>5081000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>5045000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>4686000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>5669000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>5601000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>5452000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>5349000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>6225000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>6070000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>5670000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>5290000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>5867000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>5687000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>5385000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>5288000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>5986000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>6457000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>6522000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>6258000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>6903000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>6482000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>6433000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>6271000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>6996000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>6467000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>7340000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>7576000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>12335000000</v>
+      </c>
+      <c r="C13">
         <v>35437000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>37723000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>40101000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>39911000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>38742000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>36580000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>39325000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>41587000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>40512000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>41817000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>39809000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>5385000000</v>
+      </c>
+      <c r="C14">
         <v>7494000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>5595000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>5587000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>5469000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>5152000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>6451000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>4566000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>6031000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>6084000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>5595000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>6625000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>4841000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>4756000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>3768000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>3892000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>3479000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>3536000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>3580000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>3365000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>3984000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>3253000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>4100000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>2816000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>4389000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>4154000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>6195000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>5247000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>4501000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>4756000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>5418000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>7342000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>7434000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>7734000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>6844000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>6540000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>6945000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>9022000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>8014000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>8767000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>325535000000</v>
+      </c>
+      <c r="C15">
         <v>349879000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>373622000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>395475000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>367646000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>391875000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>386463000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>385227000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>389662000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>347835000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>356283000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>386312000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>304067000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>293195000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>301287000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>264804000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>283839000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>270303000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>274423000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>296266000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>292953000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>274310000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>278879000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>264395000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>262722000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>300433000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>300041000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>304688000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>326999000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>309041000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>328440000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>324737000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>312856000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>308954000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>323286000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>291822000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>300521000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>297930000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>288214000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>279681000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>28177000000</v>
+        <v>30855000000</v>
       </c>
       <c r="C16">
-        <v>28130000000</v>
+        <v>27820000000</v>
       </c>
       <c r="D16">
-        <v>25558000000</v>
+        <v>27610000000</v>
       </c>
       <c r="E16">
-        <v>26680000000</v>
+        <v>25246000000</v>
       </c>
       <c r="F16">
+        <v>24946000000</v>
+      </c>
+      <c r="G16">
         <v>25810000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>26080000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>25698000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>26334000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>26541000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>29194000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>29038000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>28100000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>28692000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>30124000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>31806000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>32390000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>31047000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>31313000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>29489000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>31007000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>31761000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>29037000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>27368000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>25217000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>25367000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>24671000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>22514000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>22070000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>22078000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>21081000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>21270000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>21050000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>22435000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>21785000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>21921000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>20527000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>19733000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>19541000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>20643000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>182000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>193000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>189000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>163000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>185000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>189000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>184000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>167000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>187000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>195000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>194000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>109000000</v>
+      </c>
+      <c r="C18">
         <v>152000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>154000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>155000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>161000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>178000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>169000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>187000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>176000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>179000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>157000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>140000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>143000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>147000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>136000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>122000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>129000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>211000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>189000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>184000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>179000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>197000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>181000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>159000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>151000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>178000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>172000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>169000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>200000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>247000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>244000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>215000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>229000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>246000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>239000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>212000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>230000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>203000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>189000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>178000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
-        <v>10001000000</v>
+        <v>42773000000</v>
       </c>
       <c r="C19">
-        <v>9724000000</v>
+        <v>22629000000</v>
       </c>
       <c r="D19">
-        <v>10626000000</v>
+        <v>20137000000</v>
       </c>
       <c r="E19">
-        <v>6721000000</v>
+        <v>20558000000</v>
       </c>
       <c r="F19">
+        <v>16333000000</v>
+      </c>
+      <c r="G19">
         <v>8796000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>8626000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>8656000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>7517000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>8675000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>12873000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>11426000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>7613000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>9811000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>7922000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>8053000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>5776000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>6552000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>5446000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>5718000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>6052000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>7222000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>6401000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>5942000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>5950000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>7941000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>8342000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>6383000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>5736000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>7053000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>6309000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>14201000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>12694000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>15309000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>16195000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>15529000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>14958000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>16306000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>15819000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>18944000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>39507000000</v>
+      </c>
+      <c r="C20">
         <v>38330000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>38008000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>36339000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>33562000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>34784000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>34875000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>34541000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>34027000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>35395000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>42224000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>40604000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>35856000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>38650000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>38182000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>39981000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>38295000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>37817000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>36948000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>35391000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>37238000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>39180000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>35619000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>33469000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>31318000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>33486000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>33185000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>29066000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>28006000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>29378000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>27634000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>35686000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>33973000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>37990000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>38219000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>37662000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>35715000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>36242000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>35549000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>39765000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>388209000000</v>
+        <v>364933000000</v>
       </c>
       <c r="C21">
-        <v>411630000000</v>
+        <v>388057000000</v>
       </c>
       <c r="D21">
-        <v>431814000000</v>
+        <v>411476000000</v>
       </c>
       <c r="E21">
-        <v>401208000000</v>
+        <v>431659000000</v>
       </c>
       <c r="F21">
+        <v>401047000000</v>
+      </c>
+      <c r="G21">
         <v>426659000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>421338000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>419768000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>423689000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>383230000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>398507000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>426916000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>339923000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>331845000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>339469000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>304785000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>322134000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>308120000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>311371000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>331657000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>330191000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>313490000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>314498000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>297864000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>294040000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>333919000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>333226000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>333754000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>355005000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>338419000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>356074000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>360423000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>346829000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>346944000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>361505000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>329484000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>336236000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>334172000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>323763000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>319446000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>28508000000</v>
+      </c>
+      <c r="C22">
         <v>28374000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>28316000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>28258000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>28128000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>28075000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>28006000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>27928000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>27823000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>27741000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>27702000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>27644000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>27515000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>27471000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>27406000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>27349000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>27118000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>27034000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>26981000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>26911000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>26665000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>26588000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>26432000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>26248000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>25962000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>25637000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>25563000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>25432000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>25262000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>25168000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>25078000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>24887000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>24626000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>24499000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>24303000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>24176000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>24002000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>23903000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>23796000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>23688000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
         <v>4838000000</v>
@@ -3018,7 +3195,7 @@
         <v>4838000000</v>
       </c>
       <c r="F23">
-        <v>4541000000</v>
+        <v>4838000000</v>
       </c>
       <c r="G23">
         <v>4541000000</v>
@@ -3030,13 +3207,13 @@
         <v>4541000000</v>
       </c>
       <c r="J23">
-        <v>4532000000</v>
+        <v>4541000000</v>
       </c>
       <c r="K23">
         <v>4532000000</v>
       </c>
       <c r="L23">
-        <v>3542000000</v>
+        <v>4532000000</v>
       </c>
       <c r="M23">
         <v>3542000000</v>
@@ -3081,7 +3258,7 @@
         <v>3542000000</v>
       </c>
       <c r="AA23">
-        <v>2552000000</v>
+        <v>3542000000</v>
       </c>
       <c r="AB23">
         <v>2552000000</v>
@@ -3096,7 +3273,7 @@
         <v>2552000000</v>
       </c>
       <c r="AF23">
-        <v>1562000000</v>
+        <v>2552000000</v>
       </c>
       <c r="AG23">
         <v>1562000000</v>
@@ -3120,12 +3297,15 @@
         <v>1562000000</v>
       </c>
       <c r="AN23">
+        <v>1562000000</v>
+      </c>
+      <c r="AO23">
         <v>1068000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
         <v>14000000</v>
@@ -3191,7 +3371,7 @@
         <v>14000000</v>
       </c>
       <c r="W24">
-        <v>13000000</v>
+        <v>14000000</v>
       </c>
       <c r="X24">
         <v>13000000</v>
@@ -3244,745 +3424,763 @@
       <c r="AN24">
         <v>13000000</v>
       </c>
+      <c r="AO24">
+        <v>13000000</v>
+      </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>37864000000</v>
+      </c>
+      <c r="C25">
         <v>37660000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>37644000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>37088000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>36667000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>36125000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>35540000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>34822000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>34241000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>33821000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>33224000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>32601000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>31894000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>30789000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>30081000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>29382000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>28652000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>28098000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>27306000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>26496000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>25635000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>24757000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>24027000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>23300000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>22621000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>22002000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>21233000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>20593000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>19974000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>19525000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>18895000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>18257000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>17683000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>17670000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>16796000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>16439000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>15952000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>15639000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>14859000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>14202000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>24524000000</v>
+      </c>
+      <c r="C26">
         <v>24522000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>24521000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>24518000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>24400000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>23151000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>21150000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>20532000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>19833000000</v>
-      </c>
-      <c r="J26">
-        <v>19832000000</v>
       </c>
       <c r="K26">
         <v>19832000000</v>
       </c>
       <c r="L26">
+        <v>19832000000</v>
+      </c>
+      <c r="M26">
         <v>19829000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>18844000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>17803000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>16822000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>16072000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>15517000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>14145000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>13543000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>12892000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>12248000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>11597000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>10947000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>10441000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>9562000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>8714000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>8250000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>7741000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>7164000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>6733000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>6043000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>5209000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>4809000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>4377000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>3946000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>3515000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>3140000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>2819000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>2697000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>2366000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
-        <v>34906000000</v>
+        <v>35896000000</v>
       </c>
       <c r="C27">
-        <v>36153000000</v>
+        <v>34899000000</v>
       </c>
       <c r="D27">
-        <v>37159000000</v>
+        <v>36146000000</v>
       </c>
       <c r="E27">
-        <v>38392000000</v>
+        <v>36961000000</v>
       </c>
       <c r="F27">
+        <v>38196000000</v>
+      </c>
+      <c r="G27">
         <v>39333000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>41084000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>40675000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>41403000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>40636000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>39277000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>37697000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>38043000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>37781000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>38157000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>37805000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>37197000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>38108000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>38015000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>38398000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>38025000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>37365000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>36775000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>36130000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>35887000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>36653000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>36573000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>36564000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>36223000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>36400000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>36628000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>37103000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>36912000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>37790000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>37673000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>37195000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>36718000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>36218000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>35180000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>35428000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
-        <v>39744000000</v>
+        <v>40734000000</v>
       </c>
       <c r="C28">
-        <v>40991000000</v>
+        <v>39737000000</v>
       </c>
       <c r="D28">
-        <v>41997000000</v>
+        <v>40984000000</v>
       </c>
       <c r="E28">
-        <v>43230000000</v>
+        <v>41799000000</v>
       </c>
       <c r="F28">
+        <v>43034000000</v>
+      </c>
+      <c r="G28">
         <v>43874000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>45625000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>45216000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>45944000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>45168000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>43809000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>41239000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>41585000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>41323000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>41699000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>41347000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>40739000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>41650000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>41557000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>41940000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>41567000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>40907000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>40317000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>39672000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>39429000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>40195000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>39125000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>39116000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>38775000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>38952000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>39180000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>38665000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>38474000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>39352000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>39235000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>38757000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>38280000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>37780000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>36742000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>36496000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>405783000000</v>
+      </c>
+      <c r="C29">
         <v>427953000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>452621000000.0001</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>473811000000.0001</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>444438000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>470533000000.0001</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>466963000000.0001</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>464984000000.0001</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>469633000000.0001</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>428398000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>442316000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>468155000000.0001</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>381508000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>373168000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>381168000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>346132000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>362873000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>349770000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>352928000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>373597000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>371758000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>354397000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>354815000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>337536000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>333469000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>374114000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>372351000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>372870000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>393780000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>377371000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>395254000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>399088000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>385303000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>386296000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>400740000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>368241000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>374516000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>371952000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>360505000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>355942000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>808445000</v>
+      </c>
+      <c r="C30">
         <v>808280000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>808103000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>807798000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>804145000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>825821000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>863174000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>875481000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>886764000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>886136000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>885862000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>885443000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>900683000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>922199000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>942266000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>957517000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>960426000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>988777000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>999945000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1010676000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>1013442000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1024022000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>1033156000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>1039877000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1047488000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>1057337000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>1067674000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>1077083000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>1085343000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>1092953000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>1106518000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>1121512000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>1118228000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>1125710000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>1131596000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>1140373000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>1142250000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1148522000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1150477000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>1160647000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>49000</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C31">
         <v>49000</v>
@@ -3994,7 +4192,7 @@
         <v>49000</v>
       </c>
       <c r="F31">
-        <v>46000</v>
+        <v>49000</v>
       </c>
       <c r="G31">
         <v>46000</v>
@@ -4012,7 +4210,7 @@
         <v>46000</v>
       </c>
       <c r="L31">
-        <v>36000</v>
+        <v>46000</v>
       </c>
       <c r="M31">
         <v>36000</v>
@@ -4057,22 +4255,22 @@
         <v>36000</v>
       </c>
       <c r="AA31">
+        <v>36000</v>
+      </c>
+      <c r="AB31">
         <v>26000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>25800</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>26000</v>
-      </c>
-      <c r="AD31">
-        <v>25800</v>
       </c>
       <c r="AE31">
         <v>25800</v>
       </c>
       <c r="AF31">
-        <v>15800</v>
+        <v>25800</v>
       </c>
       <c r="AG31">
         <v>15800</v>
@@ -4096,372 +4294,384 @@
         <v>15800</v>
       </c>
       <c r="AN31">
+        <v>15800</v>
+      </c>
+      <c r="AO31">
         <v>10800</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>21690000000</v>
+      </c>
+      <c r="C32">
         <v>20430000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>20786000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>21567000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>22727000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>23513000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>25174000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>24764000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>25436000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>24785000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>23511000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>20929000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>21092000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>20951000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>21202000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>20787000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>20169000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>21002000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>20831000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>20974000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>20592000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>19903000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>19354000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>18768000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>18515000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>19075000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>17886000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>17731000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>17315000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>17359000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>17373000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>16955000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>16478000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>17145000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>16725000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>16277000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>15755000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>15228000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>14235000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>13880000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
-        <v>-98543000000</v>
+        <v>-104870000000</v>
       </c>
       <c r="C33">
-        <v>-115042000000</v>
+        <v>-98900000000</v>
       </c>
       <c r="D33">
-        <v>-136277000000</v>
+        <v>-115562000000</v>
       </c>
       <c r="E33">
-        <v>-104751000000</v>
+        <v>-136589000000</v>
       </c>
       <c r="F33">
+        <v>-106485000000</v>
+      </c>
+      <c r="G33">
         <v>-135567000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-135401000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-135402000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-143585000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-104984000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>-115326000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>-145732000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>-130336000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>-121157000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>-130453000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>-95580000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>-109440000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>-99770000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>-98827000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>-119144000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>-112021000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>-97409000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-96138000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>-88326000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>-84266000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>-114556000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>-117729000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>-125932000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>-144557000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>-124130000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>-141086000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>-132311000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>-132280000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>-135621000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>-157422000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>-132623000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>-146851000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>-145772000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>-127580000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>-122039000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
-        <v>63614000000</v>
+        <v>43190000000</v>
       </c>
       <c r="C34">
-        <v>65853000000</v>
+        <v>63257000000</v>
       </c>
       <c r="D34">
-        <v>65659000000</v>
+        <v>65333000000</v>
       </c>
       <c r="E34">
-        <v>66591000000</v>
+        <v>65347000000</v>
       </c>
       <c r="F34">
+        <v>64857000000</v>
+      </c>
+      <c r="G34">
         <v>64552000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>62660000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>65023000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>67921000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>67053000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>71011000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>68847000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>28100000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>28692000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>30124000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>31806000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>32390000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>31047000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>31313000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>29489000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>31007000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>31761000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>29037000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>27368000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>25217000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>25367000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>24671000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>22514000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>22070000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>22078000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>21081000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>21270000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>21050000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>22435000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>21785000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>21921000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>20527000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>19733000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>19541000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>20643000000</v>
       </c>
     </row>
